--- a/medicine/Psychotrope/Kamairicha/Kamairicha.xlsx
+++ b/medicine/Psychotrope/Kamairicha/Kamairicha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thé kamairicha (釜炒り製玉緑茶, kama-iri-sei tamaryoku-cha?) est un type de thé japonais.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oxydation de ses feuilles est arrêtée après la cueillette par chauffage direct dans une poêle chaude, selon la méthode chinoise, contrairement aux autres thés verts japonais qui sont traités à la vapeur[1]. Il peut aussi être cuit au four[2].
-Il existe deux types de malaxage des feuilles : l'un produit des feuilles enroulées (tamaryokucha) et l'autre produit des feuilles droites, en aiguille (kamanobicha)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oxydation de ses feuilles est arrêtée après la cueillette par chauffage direct dans une poêle chaude, selon la méthode chinoise, contrairement aux autres thés verts japonais qui sont traités à la vapeur. Il peut aussi être cuit au four.
+Il existe deux types de malaxage des feuilles : l'un produit des feuilles enroulées (tamaryokucha) et l'autre produit des feuilles droites, en aiguille (kamanobicha).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le kamairicha apparaît au Japon au XVIe siècle. Il est appelé tô-cha pendant l'époque d'Edo et a un grand succès auprès des lettrés de l'époque. Le sencha gagne en popularité au 19e siècle, menant au déclin du kamairicha[1].
-Au 21e siècle, il constitue moins de 5 % du thé produit au Japon[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le kamairicha apparaît au Japon au XVIe siècle. Il est appelé tô-cha pendant l'époque d'Edo et a un grand succès auprès des lettrés de l'époque. Le sencha gagne en popularité au 19e siècle, menant au déclin du kamairicha.
+Au 21e siècle, il constitue moins de 5 % du thé produit au Japon.
 </t>
         </is>
       </c>
